--- a/docs/プロジェクトマネジメント/todo管理.xlsx
+++ b/docs/プロジェクトマネジメント/todo管理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\monkeyshuffle\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\monkeyshuffle\docs\プロジェクトマネジメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDFAF5-12C5-42C5-BDED-FFA027D97A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46343AB-03BB-45C3-9E81-914E492BCA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo管理" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -584,12 +584,67 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ARモードを検討する</t>
+    <rPh sb="6" eb="8">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>展開の一つとしてメモ</t>
+    <rPh sb="0" eb="2">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPGモードを検討する</t>
+    <rPh sb="7" eb="9">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人プレイモード向けに相手のAI用意する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらないかも。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインゲームに関わるのですぐに行う。
+いらないかも。</t>
+    <rPh sb="7" eb="8">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,12 +658,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Inherit"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -666,23 +715,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -960,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1021,7 +1079,7 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1036,19 +1094,19 @@
       <c r="G4" s="3">
         <v>44014</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="36">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1057,7 +1115,7 @@
       <c r="G5" s="3">
         <v>44014</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1">
@@ -1076,7 +1134,9 @@
       <c r="G6" s="3">
         <v>44014</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="3">
+        <v>44018</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="1">
@@ -1095,7 +1155,9 @@
       <c r="G7" s="3">
         <v>44014</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="3">
+        <v>44018</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="1">
@@ -1116,7 +1178,7 @@
       <c r="G8" s="3">
         <v>44014</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="1">
@@ -1135,19 +1197,19 @@
       <c r="G9" s="3">
         <v>44014</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" ht="36">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1156,7 +1218,7 @@
       <c r="G10" s="3">
         <v>44014</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1">
@@ -1165,17 +1227,19 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3">
         <v>44014</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="1">
@@ -1196,19 +1260,19 @@
       <c r="G12" s="3">
         <v>44014</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" ht="36">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1217,7 +1281,7 @@
       <c r="G13" s="3">
         <v>44014</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="1">
@@ -1238,7 +1302,7 @@
       <c r="G14" s="3">
         <v>44014</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1">
@@ -1257,40 +1321,62 @@
       <c r="G15" s="3">
         <v>44014</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44018</v>
+      </c>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44018</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44018</v>
+      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1">
@@ -1300,8 +1386,8 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="1">
@@ -1311,8 +1397,8 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="1">
@@ -1322,8 +1408,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="1">
@@ -1333,15 +1419,20 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B3:H22">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/docs/プロジェクトマネジメント/todo管理.xlsx
+++ b/docs/プロジェクトマネジメント/todo管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\monkeyshuffle\docs\プロジェクトマネジメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46343AB-03BB-45C3-9E81-914E492BCA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6728ED4-6BAB-4183-B931-38827B35AE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo管理" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -436,22 +436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モデル変更の影響を受けるので、後回し</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>アトマワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>横井が感じた面白さを伝えるために猿のモデルで作りこんでから考える</t>
     <rPh sb="0" eb="2">
       <t>ヨコイ</t>
@@ -565,26 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半澤さんに手伝ってもらえそうなので、後回し
-横井の手が空いたら調べて作業する</t>
-    <rPh sb="22" eb="24">
-      <t>ヨコイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ARモードを検討する</t>
     <rPh sb="6" eb="8">
       <t>ケントウ</t>
@@ -637,6 +601,148 @@
     <rPh sb="15" eb="16">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応した。</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル変更の影響を受けるので、後回し
+→物理を使わずに処理した。クローズ。</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>アトマワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半澤さんに手伝ってもらえそうなので、後回し
+横井の手が空いたら調べて作業する
+→物理を使わずに処理した。クローズ。</t>
+    <rPh sb="22" eb="24">
+      <t>ヨコイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反転処理作る</t>
+    <rPh sb="0" eb="4">
+      <t>ハンテンショリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何をするボタンなのか、自分のボタンなのかを分かりやすくする。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン調整</t>
+    <rPh sb="3" eb="5">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テロップ作る</t>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guide Monkey To Banana!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートとゴールに猿を配置</t>
+    <rPh sb="9" eb="10">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待ってて暇な感じとゴールして幸せな感じを出す。
+回転させとく？</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シアワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU処理作る</t>
+    <rPh sb="3" eb="6">
+      <t>ショリツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webGLビルドする</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -644,7 +750,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,13 +769,6 @@
       <sz val="8"/>
       <color rgb="FF1D1C1D"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -720,19 +819,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1016,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1075,7 +1169,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" ht="36">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1085,8 +1179,8 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -1094,9 +1188,11 @@
       <c r="G4" s="3">
         <v>44014</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="H4" s="3">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="54">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1106,8 +1202,8 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -1115,7 +1211,9 @@
       <c r="G5" s="3">
         <v>44014</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>44773</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1">
@@ -1126,7 +1224,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1147,7 +1245,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1167,10 +1265,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -1210,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -1218,9 +1316,11 @@
       <c r="G10" s="3">
         <v>44014</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="3">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="36">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1228,10 +1328,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -1239,7 +1339,9 @@
       <c r="G11" s="3">
         <v>44014</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>44773</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="1">
@@ -1252,7 +1354,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1273,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -1291,10 +1393,10 @@
         <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1313,7 +1415,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -1328,11 +1430,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
@@ -1347,11 +1449,11 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1366,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1382,7 +1484,9 @@
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1393,8 +1497,12 @@
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
@@ -1404,31 +1512,303 @@
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" ht="36">
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
     <row r="24" spans="2:8">
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:H22">
+  <conditionalFormatting sqref="B3:H46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$H3&lt;&gt;""</formula>
     </cfRule>

--- a/docs/プロジェクトマネジメント/todo管理.xlsx
+++ b/docs/プロジェクトマネジメント/todo管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\monkeyshuffle\docs\プロジェクトマネジメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6728ED4-6BAB-4183-B931-38827B35AE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F6E636-D934-409A-AD1A-256DD91AE84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -709,32 +709,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待ってて暇な感じとゴールして幸せな感じを出す。
-回転させとく？</t>
-    <rPh sb="0" eb="1">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒマ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シアワ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CPU処理作る</t>
     <rPh sb="3" eb="6">
       <t>ショリツク</t>
@@ -743,6 +717,312 @@
   </si>
   <si>
     <t>webGLビルドする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すと輪が飛び上がる説明</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木毎押し上げる？
+押し上げたとして地面のところどうするか。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー毎に色分けする</t>
+    <rPh sb="5" eb="6">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イロワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土台毎押し上げた</t>
+    <rPh sb="0" eb="4">
+      <t>ドダイゴトオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバ処理作る</t>
+    <rPh sb="6" eb="9">
+      <t>ショリツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待ってて暇な感じとゴールして幸せな感じを出す。
+ゴールは回転させとく？
+スタートも木か崖を用意する？土台押し上げる？大砲発射？</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シアワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ガケ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ドダイオ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>タイホウハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこかにゲージを出して分かりやすくしたい。</t>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unity本体をverupする</t>
+    <rPh sb="5" eb="7">
+      <t>ホンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timerを作る。</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Startとリザルトを用意する。</t>
+    <rPh sb="11" eb="13">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぐやる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦終わり。スタートボタン関係は未だ。</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト考える。</t>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトと素材考える。</t>
+    <rPh sb="6" eb="8">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマーの次ぐらいにやる。</t>
+    <rPh sb="5" eb="6">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複削除</t>
+    <rPh sb="0" eb="4">
+      <t>チョウフクサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン押せる頻度で強さ制限する？
+普通に考えると失敗しないけど、どうするか。。</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手のモンキーの拉致作戦を考える。</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ラチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拉致を有効な戦略にしたくない。
+反転タイミングで、相手の木に居る猿が落ちるようにする？</t>
+    <rPh sb="0" eb="2">
+      <t>ラチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timerバーを用意する。
+6sで木が１回転。5sで木の回転を逆にする。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猿をちょっと色変え。</t>
+    <rPh sb="0" eb="1">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イロカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1112,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1423,7 +1703,9 @@
       <c r="G15" s="3">
         <v>44014</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>44606</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="1">
@@ -1487,11 +1769,21 @@
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44605</v>
+      </c>
+      <c r="H19" s="3">
+        <v>44605</v>
+      </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="1">
@@ -1503,10 +1795,18 @@
       <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44605</v>
+      </c>
+      <c r="H20" s="3">
+        <v>44605</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="1">
@@ -1518,12 +1818,20 @@
       <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" ht="36">
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44605</v>
+      </c>
+      <c r="H21" s="3">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="54">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1531,24 +1839,32 @@
         <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>44605</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" ht="36">
       <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>44605</v>
+      </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8">
@@ -1556,89 +1872,151 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>44605</v>
+      </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" ht="36">
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3">
+        <v>44605</v>
+      </c>
+      <c r="H25" s="3">
+        <v>44605</v>
+      </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44605</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44605</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44605</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" ht="36">
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44605</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44606</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44605</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" ht="36">
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44606</v>
+      </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8">
@@ -1814,6 +2192,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/プロジェクトマネジメント/todo管理.xlsx
+++ b/docs/プロジェクトマネジメント/todo管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\monkeyshuffle\docs\プロジェクトマネジメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F6E636-D934-409A-AD1A-256DD91AE84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF90FA7-5C64-4148-AB48-C1B84A1B3696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -389,13 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２人でプレイできるようにする</t>
-    <rPh sb="1" eb="2">
-      <t>ニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ビルド作成</t>
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
@@ -1016,12 +1009,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>猿をちょっと色変え。</t>
+    <t>猿をちょっと色変え。
+プログラムで出来る？</t>
     <rPh sb="0" eb="1">
       <t>サル</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>イロカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>punで無料で出来そう</t>
+    <rPh sb="4" eb="6">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1392,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1412,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -1460,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -1483,7 +1490,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -1504,7 +1511,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1525,7 +1532,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1545,10 +1552,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -1588,7 +1595,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -1608,10 +1615,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -1631,10 +1638,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1655,7 +1662,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -1670,13 +1677,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1691,11 +1698,11 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -1712,11 +1719,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
@@ -1731,11 +1738,11 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1750,7 +1757,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1767,13 +1774,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1790,13 +1797,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1813,13 +1820,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
@@ -1836,15 +1843,17 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="3">
         <v>44605</v>
       </c>
@@ -1855,13 +1864,15 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="3">
         <v>44605</v>
       </c>
@@ -1872,11 +1883,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G24" s="3">
         <v>44605</v>
       </c>
@@ -1887,13 +1900,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="3">
@@ -1903,15 +1916,15 @@
         <v>44605</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" ht="36">
       <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
@@ -1920,18 +1933,20 @@
       <c r="G26" s="3">
         <v>44605</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>44607</v>
+      </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -1946,7 +1961,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1963,13 +1978,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>14</v>
@@ -1986,11 +2001,11 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -2005,10 +2020,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">

--- a/docs/プロジェクトマネジメント/todo管理.xlsx
+++ b/docs/プロジェクトマネジメント/todo管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\monkeyshuffle\docs\プロジェクトマネジメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF90FA7-5C64-4148-AB48-C1B84A1B3696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AB34D6-0929-4CCE-BB27-832E33948425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo管理" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -954,38 +954,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>拉致を有効な戦略にしたくない。
-反転タイミングで、相手の木に居る猿が落ちるようにする？</t>
-    <rPh sb="0" eb="2">
-      <t>ラチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センリャク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハンテン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>サル</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Timerバーを用意する。
 6sで木が１回転。5sで木の回転を逆にする。</t>
     <rPh sb="8" eb="10">
@@ -1029,6 +997,103 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちた猿は自動復帰でなくて、クリックで復帰させる。</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ジドウフッキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拉致を有効な戦略にしたくない。
+案１：反転タイミングで、相手の木に居る猿が落ちるようにする？
+案２：タップで落とす
+案３：時間がたつと光って落ちる</t>
+    <rPh sb="0" eb="2">
+      <t>ラチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestScenceの作成／充実</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹き飛ばし処理、くっつく処理・・・</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1400,7 +1465,7 @@
   <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1638,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>39</v>
@@ -1852,7 +1917,7 @@
         <v>74</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G22" s="3">
         <v>44605</v>
@@ -1924,7 +1989,7 @@
         <v>63</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
@@ -1981,7 +2046,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>71</v>
@@ -2015,7 +2080,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8" ht="36">
+    <row r="31" spans="2:8" ht="72">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2023,7 +2088,7 @@
         <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
@@ -2038,7 +2103,9 @@
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2049,8 +2116,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="3"/>
